--- a/data/btmigrate_output.xlsx
+++ b/data/btmigrate_output.xlsx
@@ -634,17 +634,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Evet</t>
+          <t>Hayır</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hayır</t>
+          <t>Evet</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>Linux</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[MA] ❌ Domain controller bulunamadı. Domain: quasys.com</t>
         </is>
       </c>
     </row>
@@ -689,17 +694,47 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Evet</t>
+          <t>Hayır</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hayır</t>
+          <t>Evet</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>Windows</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>pam118065</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -744,17 +779,47 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Evet</t>
+          <t>Hayır</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hayır</t>
+          <t>Evet</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>mssql</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>MSSQL</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>pam118064</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -799,17 +864,47 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Evet</t>
+          <t>Hayır</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hayır</t>
+          <t>Evet</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>Windows</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>pam100887</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -867,6 +962,36 @@
           <t>Windows</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>pam100888</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -909,17 +1034,47 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Evet</t>
+          <t>Hayır</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hayır</t>
+          <t>Evet</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>oracle</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PAM100545</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -977,6 +1132,41 @@
           <t>oracle</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1032,6 +1222,36 @@
           <t>Windows</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>pam100887</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1087,6 +1307,36 @@
           <t>Windows</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>pam100888</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1137,6 +1387,36 @@
           <t>oracle</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>PAM100545</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1191,12 +1471,36 @@
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>pam100888</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Kapalı</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
